--- a/output/google_maps_data_ATM_Sleman.xlsx
+++ b/output/google_maps_data_ATM_Sleman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -503,25 +498,24 @@
       </c>
       <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
       <c r="F2" t="n">
-        <v>5</v>
+        <v>-7.719894</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.719894</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.361173</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bersama+-+Sleman+City+Hall/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a596185e2a535:0xa525c8b5de025c49!8m2!3d-7.7198936!4d110.3611733!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F11j8vr_bft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J2" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bersama+-+Sleman+City+Hall/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a596185e2a535:0xa525c8b5de025c49!8m2!3d-7.7198936!4d110.3611733!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F11j8vr_bft?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -544,25 +538,24 @@
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>2.2</v>
+      </c>
       <c r="F3" t="n">
-        <v>2.2</v>
+        <v>-7.717049</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.717049</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.359929</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58cb9b5eb76b:0x706155156353e48c!8m2!3d-7.717049!4d110.3599288!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c6rjbff2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58cb9b5eb76b:0x706155156353e48c!8m2!3d-7.717049!4d110.3599288!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c6rjbff2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -589,25 +582,24 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.782978</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.782978</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.390342</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+KCP+Adisucipto/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59cf8a01802d:0xc50a5e534d2f474!8m2!3d-7.7829776!4d110.3903424!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f03wdvjf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+KCP+Adisucipto/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59cf8a01802d:0xc50a5e534d2f474!8m2!3d-7.7829776!4d110.3903424!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f03wdvjf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -634,25 +626,24 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.6</v>
+        <v>-7.771165</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.771165</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.379542</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b4b5fb1439:0x6833b841ec980e8!8m2!3d-7.7711645!4d110.3795418!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6dq8_r_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J5" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b4b5fb1439:0x6833b841ec980e8!8m2!3d-7.7711645!4d110.3795418!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6dq8_r_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -675,25 +666,24 @@
         </is>
       </c>
       <c r="D6" t="inlineStr"/>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.1</v>
+        <v>-7.717057</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.717057</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.359972</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58cb9b84a07f:0x271fb0828aec8283!8m2!3d-7.7170566!4d110.3599722!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c1vk3kp4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J6" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58cb9b84a07f:0x271fb0828aec8283!8m2!3d-7.7170566!4d110.3599722!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c1vk3kp4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -713,22 +703,21 @@
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr"/>
-      <c r="F7" t="inlineStr"/>
+      <c r="F7" t="n">
+        <v>-7.772868</v>
+      </c>
       <c r="G7" t="n">
-        <v>-7.772868</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.375532</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BNI+SKC+Yogyakarta/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b668896801:0xd63a010be5ddbe36!8m2!3d-7.7728676!4d110.3755319!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f6y0_9s8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -743,25 +732,24 @@
       </c>
       <c r="C8" t="inlineStr"/>
       <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.1</v>
+        <v>-7.76933</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.76933</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.373517</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+CENTER+SARDJITO/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584c0fd332bd:0xfb74c311f13040c3!8m2!3d-7.7693301!4d110.3735165!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c5sr5fx4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+CENTER+SARDJITO/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584c0fd332bd:0xfb74c311f13040c3!8m2!3d-7.7693301!4d110.3735165!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c5sr5fx4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -780,25 +768,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4</v>
+      </c>
       <c r="F9" t="n">
-        <v>4</v>
+        <v>-7.720122</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.720122</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.38291</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Sleman+Rejodani/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a592918671b6d:0x40006599256816ae!8m2!3d-7.7201225!4d110.3829097!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hcvh4psf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J9" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Sleman+Rejodani/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a592918671b6d:0x40006599256816ae!8m2!3d-7.7201225!4d110.3829097!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hcvh4psf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -826,22 +813,21 @@
         </is>
       </c>
       <c r="E10" t="inlineStr"/>
-      <c r="F10" t="inlineStr"/>
+      <c r="F10" t="n">
+        <v>-7.712029</v>
+      </c>
       <c r="G10" t="n">
-        <v>-7.712029</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.357205</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+UNIT+BRI+SLEMAN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f0cc56896b3:0x8625d06db04dfa70!8m2!3d-7.7120292!4d110.3572051!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11rqz46xvf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -860,25 +846,24 @@
           <t>(021) 1500017</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>5</v>
+      </c>
       <c r="F11" t="n">
-        <v>5</v>
+        <v>-7.743492</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.743492</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.350584</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+RS+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a589246102353:0xd21e1ae0bec9b52d!8m2!3d-7.743492!4d110.3505844!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c0xpdzbq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J11" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+RS+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a589246102353:0xd21e1ae0bec9b52d!8m2!3d-7.743492!4d110.3505844!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c0xpdzbq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -901,25 +886,24 @@
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.4</v>
+        <v>-7.76421</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.76421</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.361922</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585b41c7cbdb:0x9ede006e9e570829!8m2!3d-7.7642099!4d110.3619219!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6bwpjjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J12" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585b41c7cbdb:0x9ede006e9e570829!8m2!3d-7.7642099!4d110.3619219!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6bwpjjp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -946,25 +930,24 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>5</v>
+      </c>
       <c r="F13" t="n">
-        <v>5</v>
+        <v>-7.750491</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.750491</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.362502</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f6c8b642d1:0xbf3d53e9afe587bc!8m2!3d-7.7504913!4d110.3625023!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b67gql_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J13" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f6c8b642d1:0xbf3d53e9afe587bc!8m2!3d-7.7504913!4d110.3625023!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b67gql_x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -987,25 +970,24 @@
         </is>
       </c>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>5</v>
+      </c>
       <c r="F14" t="n">
-        <v>5</v>
+        <v>-7.763656</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.763656</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.361854</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Sinduadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585b41d6d595:0x84c021a77bfd7460!8m2!3d-7.7636556!4d110.3618537!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11d_8drbs9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J14" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Sinduadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585b41d6d595:0x84c021a77bfd7460!8m2!3d-7.7636556!4d110.3618537!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11d_8drbs9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1032,25 +1014,24 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.1</v>
+        <v>-7.773565</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.773565</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.375131</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Yogyakarta+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584a5c09693d:0x8faf3dfd09ed1047!8m2!3d-7.7735651!4d110.375131!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11cm_gzr8r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J15" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Yogyakarta+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584a5c09693d:0x8faf3dfd09ed1047!8m2!3d-7.7735651!4d110.375131!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11cm_gzr8r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
         <is>
           <t>6 hari lalu</t>
         </is>
@@ -1070,22 +1051,21 @@
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr"/>
-      <c r="F16" t="inlineStr"/>
+      <c r="F16" t="n">
+        <v>-7.687256</v>
+      </c>
       <c r="G16" t="n">
-        <v>-7.687256</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.341951</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Mandiri+RSUD+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f867e082133:0xe7879d703716d907!8m2!3d-7.6872562!4d110.3419509!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11scw_r8v5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1104,25 +1084,24 @@
         </is>
       </c>
       <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F17" t="n">
-        <v>4.2</v>
+        <v>-7.756871</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.756871</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.369617</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5856533503c3:0xd4e70462bd3ba69b!8m2!3d-7.7568711!4d110.3696169!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66hsx64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J17" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5856533503c3:0xd4e70462bd3ba69b!8m2!3d-7.7568711!4d110.3696169!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66hsx64?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -1141,25 +1120,24 @@
       </c>
       <c r="C18" t="inlineStr"/>
       <c r="D18" t="inlineStr"/>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4</v>
+      </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>-7.751574</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.751574</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.373868</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Atm+Center+BRI,+BNI,+Mandiri+Syariah/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59fb3e2fdc25:0xedff91e2ea4210ad!8m2!3d-7.7515737!4d110.3738675!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g49r64w3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J18" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Atm+Center+BRI,+BNI,+Mandiri+Syariah/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59fb3e2fdc25:0xedff91e2ea4210ad!8m2!3d-7.7515737!4d110.3738675!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g49r64w3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1187,22 +1165,21 @@
         </is>
       </c>
       <c r="E19" t="inlineStr"/>
-      <c r="F19" t="inlineStr"/>
+      <c r="F19" t="n">
+        <v>-7.715975</v>
+      </c>
       <c r="G19" t="n">
-        <v>-7.715975</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.355628</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" t="inlineStr">
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+KEJAKSAAN+SLEMAN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5937f245459d:0xaed10bfa1ae2224e!8m2!3d-7.7159751!4d110.3556284!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11rqz4y63z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1221,25 +1198,24 @@
         </is>
       </c>
       <c r="D20" t="inlineStr"/>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>3.3</v>
+      </c>
       <c r="F20" t="n">
-        <v>3.3</v>
+        <v>-7.701882</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.701882</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.34938</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BCA+KK+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f467cfef315:0x164625b764551f68!8m2!3d-7.7018822!4d110.3493802!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f4kv2kn4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BCA+KK+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f467cfef315:0x164625b764551f68!8m2!3d-7.7018822!4d110.3493802!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f4kv2kn4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1262,25 +1238,24 @@
         </is>
       </c>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>5</v>
+      </c>
       <c r="F21" t="n">
-        <v>5</v>
+        <v>-7.77655</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.77655</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.381245</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59caf7155a27:0xc0bcafe81f1c99b6!8m2!3d-7.77655!4d110.381245!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11btlwpd4p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59caf7155a27:0xc0bcafe81f1c99b6!8m2!3d-7.77655!4d110.381245!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11btlwpd4p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1299,25 +1274,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>5</v>
+      </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>-7.775081</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.775081</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.388813</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+MANDIRI+plaza+UNY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c83d32022f:0x76aaac05957841ba!8m2!3d-7.7750808!4d110.3888127!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11ggb339ll?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+MANDIRI+plaza+UNY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c83d32022f:0x76aaac05957841ba!8m2!3d-7.7750808!4d110.3888127!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11ggb339ll?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -1340,25 +1314,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4</v>
+      </c>
       <c r="F23" t="n">
-        <v>4</v>
+        <v>-7.769329</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.769329</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.373499</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584c39ee5c63:0xa57b963def5b4d2e!8m2!3d-7.7693291!4d110.3734989!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6gncj8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584c39ee5c63:0xa57b963def5b4d2e!8m2!3d-7.7693291!4d110.3734989!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6gncj8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1381,25 +1354,24 @@
           <t>(021) 29534040</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.6</v>
+        <v>-7.780074</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.780074</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.343762</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Indonesia/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58ab35db64e5:0x73392e0db5d48708!8m2!3d-7.7800742!4d110.3437621!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1pzsj7jhw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Indonesia/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58ab35db64e5:0x73392e0db5d48708!8m2!3d-7.7800742!4d110.3437621!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1pzsj7jhw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1426,25 +1398,24 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.1</v>
+        <v>-7.708493</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.708493</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.354566</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f35c8176063:0x4d553790794b3bff!8m2!3d-7.7084932!4d110.3545661!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6d2nlrp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J25" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f35c8176063:0x4d553790794b3bff!8m2!3d-7.7084932!4d110.3545661!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6d2nlrp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -1463,25 +1434,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>5</v>
+      </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>-7.772706</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.772706</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.379896</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Muamalat/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b522f0a37f:0x6f31adc54ba3b202!8m2!3d-7.772706!4d110.3798959!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6glv4ck?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Muamalat/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b522f0a37f:0x6f31adc54ba3b202!8m2!3d-7.772706!4d110.3798959!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6glv4ck?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1508,25 +1478,24 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.5</v>
+        <v>-7.764317</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.764317</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.361794</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+DRIVE+THRU+TVRI+YOGYAKARTA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585c00000073:0xff24dbe220270fc3!8m2!3d-7.7643173!4d110.3617942!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F11b5wb2l8t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+DRIVE+THRU+TVRI+YOGYAKARTA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585c00000073:0xff24dbe220270fc3!8m2!3d-7.7643173!4d110.3617942!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F11b5wb2l8t?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1549,25 +1518,24 @@
           <t>(0274) 554784</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.7</v>
+        <v>-7.709262</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.709262</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.355514</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f35e2e2f4bd:0x1011020cee769286!8m2!3d-7.7092617!4d110.3555135!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11cltsj5dr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f35e2e2f4bd:0x1011020cee769286!8m2!3d-7.7092617!4d110.3555135!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11cltsj5dr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1594,25 +1562,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>5</v>
+      </c>
       <c r="F29" t="n">
-        <v>5</v>
+        <v>-7.720573</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.720573</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.361537</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+CRM+-+KANTOR+KAS+SLEMAN+CITY+HALL/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a591266801be1:0x4aa09216fa7f2bd8!8m2!3d-7.7205727!4d110.3615369!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11sqkh_8w7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+CRM+-+KANTOR+KAS+SLEMAN+CITY+HALL/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a591266801be1:0x4aa09216fa7f2bd8!8m2!3d-7.7205727!4d110.3615369!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11sqkh_8w7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1632,22 +1599,21 @@
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr"/>
-      <c r="F30" t="inlineStr"/>
+      <c r="F30" t="n">
+        <v>-7.75322</v>
+      </c>
       <c r="G30" t="n">
-        <v>-7.75322</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.38452</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" t="inlineStr">
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59074b62f1e5:0x73fc9c746a8f98!8m2!3d-7.7532198!4d110.3845201!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbygpz7j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1670,25 +1636,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>3.5</v>
+        <v>-7.751832</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.751832</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.411049</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+-+PENGADILAN+SLEMAN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59f3450f1ddb:0xca72580c90c09cb2!8m2!3d-7.751832!4d110.4110487!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11sqkhywkf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J31" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+-+PENGADILAN+SLEMAN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59f3450f1ddb:0xca72580c90c09cb2!8m2!3d-7.751832!4d110.4110487!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11sqkhywkf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1715,25 +1680,24 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4</v>
+      </c>
       <c r="F32" t="n">
-        <v>4</v>
+        <v>-7.687018</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.687018</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.3418</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI+RSUD+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5ff58e66076d:0x95302c1d2b43d26c!8m2!3d-7.6870175!4d110.3417997!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g2y_s39v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI+RSUD+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5ff58e66076d:0x95302c1d2b43d26c!8m2!3d-7.6870175!4d110.3417997!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g2y_s39v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -1760,25 +1724,24 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.6</v>
+        <v>-7.768231</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.768231</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.381011</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Fakultas+Pertanian+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b304c1a991:0xd10c6b61eaf361b1!8m2!3d-7.7682308!4d110.381011!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b73m14m3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Fakultas+Pertanian+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b304c1a991:0xd10c6b61eaf361b1!8m2!3d-7.7682308!4d110.381011!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b73m14m3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1801,25 +1764,24 @@
           <t>1 500 017</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>3.1</v>
+      </c>
       <c r="F34" t="n">
-        <v>3.1</v>
+        <v>-7.760883</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.760883</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.3617</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI+Jombor/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585be5af3b2b:0x16f60e9a807fa1fc!8m2!3d-7.7608828!4d110.3617004!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bc7106hj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI+Jombor/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585be5af3b2b:0x16f60e9a807fa1fc!8m2!3d-7.7608828!4d110.3617004!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bc7106hj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -1842,25 +1804,24 @@
           <t>(021) 1500017</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.2</v>
+        <v>-7.746971</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.746971</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.355003</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI+UTY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f2dc7802bd:0x9602da9b62f003b1!8m2!3d-7.7469709!4d110.3550033!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b720h785?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI+UTY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f2dc7802bd:0x9602da9b62f003b1!8m2!3d-7.7469709!4d110.3550033!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b720h785?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1887,25 +1848,24 @@
           <t>(0274) 14000</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F36" t="n">
-        <v>3.7</v>
+        <v>-7.765836</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.765836</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.372491</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Fakultas+Teknik+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584e02998fbf:0x64426e8ff297cad2!8m2!3d-7.7658359!4d110.3724911!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6dgh4t2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J36" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Fakultas+Teknik+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584e02998fbf:0x64426e8ff297cad2!8m2!3d-7.7658359!4d110.3724911!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6dgh4t2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -1932,25 +1892,24 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>5</v>
+      </c>
       <c r="F37" t="n">
-        <v>5</v>
+        <v>-7.769807</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.769807</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.390327</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Mirota+Gejayan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b9fdc1fd35:0x9e0271a594b34195!8m2!3d-7.7698071!4d110.3903265!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c5_fd3mt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Mirota+Gejayan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b9fdc1fd35:0x9e0271a594b34195!8m2!3d-7.7698071!4d110.3903265!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c5_fd3mt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -1970,22 +1929,21 @@
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr"/>
-      <c r="F38" t="inlineStr"/>
+      <c r="F38" t="n">
+        <v>-7.762389</v>
+      </c>
       <c r="G38" t="n">
-        <v>-7.762389</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.380179</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" t="inlineStr">
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Link+(BNI,+BRI,+BTN,+MANDIRI)/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ad18841eaf:0x57fb804c0b4dd9d6!8m2!3d-7.7623894!4d110.3801789!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g6nlkr0j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -2008,21 +1966,20 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
-      <c r="F39" t="n">
+      <c r="E39" t="n">
         <v>4.6</v>
       </c>
+      <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr"/>
-      <c r="H39" t="inlineStr"/>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Alfamart+Palagan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58fc90af21a7:0x75133f39fddf0abc!8m2!3d-7.7458973!4d110.3734047!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6yprt5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Alfamart+Palagan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58fc90af21a7:0x75133f39fddf0abc!8m2!3d-7.7458973!4d110.3734047!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6yprt5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -2045,21 +2002,20 @@
         </is>
       </c>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
-      <c r="F40" t="n">
+      <c r="E40" t="n">
         <v>4.8</v>
       </c>
+      <c r="F40" t="inlineStr"/>
       <c r="G40" t="inlineStr"/>
-      <c r="H40" t="inlineStr"/>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA+619V+Indomaret+Tlogoadi+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a2b2b38a91:0x78a319415c2a9102!8m2!3d-7.734836!4d110.3427727!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hcj2ttqz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA+619V+Indomaret+Tlogoadi+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a2b2b38a91:0x78a319415c2a9102!8m2!3d-7.734836!4d110.3427727!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hcj2ttqz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2078,21 +2034,20 @@
       </c>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
-      <c r="E41" t="inlineStr"/>
-      <c r="F41" t="n">
+      <c r="E41" t="n">
         <v>5</v>
       </c>
+      <c r="F41" t="inlineStr"/>
       <c r="G41" t="inlineStr"/>
-      <c r="H41" t="inlineStr"/>
-      <c r="I41" t="b">
-        <v>0</v>
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Permata+Bank/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a593bcb06becf:0xd57a70a222c5f8e3!8m2!3d-7.7418854!4d110.3624339!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f6yx8dlq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J41" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Permata+Bank/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a593bcb06becf:0xd57a70a222c5f8e3!8m2!3d-7.7418854!4d110.3624339!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f6yx8dlq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2115,21 +2070,20 @@
         </is>
       </c>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
-      <c r="F42" t="n">
+      <c r="E42" t="n">
         <v>4</v>
       </c>
+      <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr"/>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59a46bca9f4b:0xc5996e817bf13038!8m2!3d-7.7601134!4d110.3951207!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bby3yf8j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59a46bca9f4b:0xc5996e817bf13038!8m2!3d-7.7601134!4d110.3951207!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bby3yf8j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -2148,21 +2102,20 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
-      <c r="F43" t="n">
+      <c r="E43" t="n">
         <v>4.7</v>
       </c>
+      <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr"/>
-      <c r="H43" t="inlineStr"/>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Center+JCM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f67645e575:0xb10b97d06f7a50bc!8m2!3d-7.7534244!4d110.3607891!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hctfwcmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Center+JCM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f67645e575:0xb10b97d06f7a50bc!8m2!3d-7.7534244!4d110.3607891!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hctfwcmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2185,21 +2138,20 @@
         </is>
       </c>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
-      <c r="F44" t="n">
+      <c r="E44" t="n">
         <v>2</v>
       </c>
+      <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59f17fa0ddd1:0x78816c3d24b8a9e3!8m2!3d-7.7170639!4d110.3546411!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11p_51whmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59f17fa0ddd1:0x78816c3d24b8a9e3!8m2!3d-7.7170639!4d110.3546411!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11p_51whmh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2222,21 +2174,20 @@
         </is>
       </c>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
-      <c r="F45" t="n">
+      <c r="E45" t="n">
         <v>4.8</v>
       </c>
+      <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Setor+Tarik+Tunai+BNI+Jalan+Magelang/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585be6d2c6c7:0xbf56b29e9b975409!8m2!3d-7.7603554!4d110.3620142!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g8wh3pb7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Setor+Tarik+Tunai+BNI+Jalan+Magelang/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585be6d2c6c7:0xbf56b29e9b975409!8m2!3d-7.7603554!4d110.3620142!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g8wh3pb7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2259,25 +2210,24 @@
         </is>
       </c>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>5</v>
+      </c>
       <c r="F46" t="n">
-        <v>5</v>
+        <v>-7.752702</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.752702</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.384863</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Superindo+Jakal/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59074a02e183:0x89affef896f5dd20!8m2!3d-7.7527022!4d110.3848632!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b64b7d2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J46" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Superindo+Jakal/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59074a02e183:0x89affef896f5dd20!8m2!3d-7.7527022!4d110.3848632!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b64b7d2w?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K46" t="inlineStr">
         <is>
           <t>8 tahun lalu</t>
         </is>
@@ -2304,25 +2254,24 @@
           <t>1 500 046</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>4</v>
+      </c>
       <c r="F47" t="n">
-        <v>4</v>
+        <v>-7.762348</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.762348</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.380111</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Gading+Mas+Jakal/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ad189057ff:0xfb1a1573837cb125!8m2!3d-7.7623482!4d110.3801107!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbydvk0z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Gading+Mas+Jakal/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ad189057ff:0xfb1a1573837cb125!8m2!3d-7.7623482!4d110.3801107!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbydvk0z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2341,25 +2290,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F48" t="n">
-        <v>3.5</v>
+        <v>-7.74694</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.74694</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.353643</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+SPBU+Sendangadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a588d3a2aaed5:0xcb1cf5604e05d90!8m2!3d-7.7469396!4d110.3536427!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c58nhngv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+SPBU+Sendangadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a588d3a2aaed5:0xcb1cf5604e05d90!8m2!3d-7.7469396!4d110.3536427!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c58nhngv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2382,25 +2330,24 @@
         </is>
       </c>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F49" t="n">
-        <v>3.8</v>
+        <v>-7.731431</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.731431</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.330726</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7af61e0259d99d:0xf89c3037dff90e36!8m2!3d-7.7314308!4d110.3307263!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c3sqrygw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7af61e0259d99d:0xf89c3037dff90e36!8m2!3d-7.7314308!4d110.3307263!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c3sqrygw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2427,25 +2374,24 @@
           <t>(021) 14000</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4</v>
+      </c>
       <c r="F50" t="n">
-        <v>4</v>
+        <v>-7.743492</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.743492</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.350356</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+RS+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5892413b6dff:0xfd46d0e2663cb5eb!8m2!3d-7.7434919!4d110.3503563!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c0xys5x5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+RS+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5892413b6dff:0xfd46d0e2663cb5eb!8m2!3d-7.7434919!4d110.3503563!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c0xys5x5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2464,25 +2410,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>3.9</v>
+      </c>
       <c r="F51" t="n">
-        <v>3.9</v>
+        <v>-7.750885</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.750885</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.385456</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Indonesia/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5906dba96219:0xde24d80a681f627a!8m2!3d-7.750885!4d110.3854563!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b61rw1kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Syariah+Indonesia/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5906dba96219:0xde24d80a681f627a!8m2!3d-7.750885!4d110.3854563!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b61rw1kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2505,25 +2450,24 @@
         </is>
       </c>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>4</v>
+      </c>
       <c r="F52" t="n">
-        <v>4</v>
+        <v>-7.758177</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.758177</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.337713</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/mandiri+atm/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a587dc56f9f5b:0x6caeb9ee9e018cbc!8m2!3d-7.758177!4d110.337713!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6t5q94f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/mandiri+atm/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a587dc56f9f5b:0x6caeb9ee9e018cbc!8m2!3d-7.758177!4d110.337713!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6t5q94f?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2542,25 +2486,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F53" t="n">
-        <v>3.5</v>
+        <v>-7.74626</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.74626</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.388528</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Mandiri+Kolombo/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5905a6dcaa61:0x4f78cc0532efb851!8m2!3d-7.7462596!4d110.3885278!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f4q_04nt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2583,25 +2526,24 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>5</v>
+      </c>
       <c r="F54" t="n">
-        <v>5</v>
+        <v>-7.779046</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.779046</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.392393</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c6766edf19:0x3e7929c857459777!8m2!3d-7.7790465!4d110.3923931!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b636xc97?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c6766edf19:0x3e7929c857459777!8m2!3d-7.7790465!4d110.3923931!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b636xc97?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2620,25 +2562,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>3.8</v>
+      </c>
       <c r="F55" t="n">
-        <v>3.8</v>
+        <v>-7.731449</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.731449</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.332613</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a0c87917a3:0x4dc9729a75668312!8m2!3d-7.7314494!4d110.3326131!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b8c0xckm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a0c87917a3:0x4dc9729a75668312!8m2!3d-7.7314494!4d110.3326131!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b8c0xckm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2661,25 +2602,24 @@
         </is>
       </c>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>2.9</v>
+      </c>
       <c r="F56" t="n">
-        <v>2.9</v>
+        <v>-7.731507</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.731507</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.332374</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a0c7ca70a7:0xe57e87c01e57569f!8m2!3d-7.7315067!4d110.3323735!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bv5qs0dp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a0c7ca70a7:0xe57e87c01e57569f!8m2!3d-7.7315067!4d110.3323735!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bv5qs0dp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2702,21 +2642,20 @@
         </is>
       </c>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
-      <c r="F57" t="n">
+      <c r="E57" t="n">
         <v>4</v>
       </c>
+      <c r="F57" t="inlineStr"/>
       <c r="G57" t="inlineStr"/>
-      <c r="H57" t="inlineStr"/>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/BANK+BRI+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584c0fdf18a3:0xb1db7d333ffb9a9d!8m2!3d-7.769315!4d110.373441!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6gntt1x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/BANK+BRI+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584c0fdf18a3:0xb1db7d333ffb9a9d!8m2!3d-7.769315!4d110.373441!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6gntt1x?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2739,21 +2678,20 @@
         </is>
       </c>
       <c r="D58" t="inlineStr"/>
-      <c r="E58" t="inlineStr"/>
-      <c r="F58" t="n">
+      <c r="E58" t="n">
         <v>4.7</v>
       </c>
+      <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr"/>
-      <c r="H58" t="inlineStr"/>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri+Sendangadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58e9d41e14fb:0x19b2874c2ba8d039!8m2!3d-7.7347149!4d110.3632819!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6_hcy4m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri+Sendangadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58e9d41e14fb:0x19b2874c2ba8d039!8m2!3d-7.7347149!4d110.3632819!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6_hcy4m?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -2776,21 +2714,20 @@
           <t>(021) 1500286</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr"/>
-      <c r="F59" t="n">
+      <c r="E59" t="n">
         <v>4.3</v>
       </c>
+      <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr"/>
-      <c r="H59" t="inlineStr"/>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BTN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c83d12e7a1:0x5910ee48f6eab63c!8m2!3d-7.7759355!4d110.3887959!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c0xjmgmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BTN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c83d12e7a1:0x5910ee48f6eab63c!8m2!3d-7.7759355!4d110.3887959!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c0xjmgmf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2817,21 +2754,20 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr"/>
-      <c r="F60" t="n">
+      <c r="E60" t="n">
         <v>4.2</v>
       </c>
+      <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr"/>
-      <c r="H60" t="inlineStr"/>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+KOPMA+UNY+YOGYAKARTA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c98fb14405:0xb3e0210da430ac16!8m2!3d-7.7734428!4d110.3854637!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pj1v7n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+KOPMA+UNY+YOGYAKARTA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c98fb14405:0xb3e0210da430ac16!8m2!3d-7.7734428!4d110.3854637!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pj1v7n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2854,21 +2790,20 @@
         </is>
       </c>
       <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr"/>
-      <c r="F61" t="n">
+      <c r="E61" t="n">
         <v>4.5</v>
       </c>
+      <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
-      <c r="I61" t="b">
-        <v>0</v>
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Cabang+Univ+Negeri+Yogyakarta+3/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b7de474b05:0xe459059543e373e5!8m2!3d-7.7750812!4d110.3888159!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bc7nlcgb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J61" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Cabang+Univ+Negeri+Yogyakarta+3/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b7de474b05:0xe459059543e373e5!8m2!3d-7.7750812!4d110.3888159!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bc7nlcgb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -2891,21 +2826,20 @@
           <t>1 500 888</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr"/>
-      <c r="F62" t="n">
+      <c r="E62" t="n">
         <v>3.5</v>
       </c>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
-      <c r="H62" t="inlineStr"/>
-      <c r="I62" t="b">
-        <v>0</v>
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58446c75a5b9:0x9a4187c68a4dd0af!8m2!3d-7.7689965!4d110.3617577!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66cmrdk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J62" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58446c75a5b9:0x9a4187c68a4dd0af!8m2!3d-7.7689965!4d110.3617577!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66cmrdk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -2932,21 +2866,20 @@
           <t>(021) 14000</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
-      <c r="F63" t="n">
+      <c r="E63" t="n">
         <v>3</v>
       </c>
+      <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr"/>
-      <c r="H63" t="inlineStr"/>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Mirota+Kampus+Palagan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58e00e3800e9:0x355063763e5d4918!8m2!3d-7.7340668!4d110.3776543!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g68zqmws?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Mirota+Kampus+Palagan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58e00e3800e9:0x355063763e5d4918!8m2!3d-7.7340668!4d110.3776543!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g68zqmws?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2969,21 +2902,20 @@
         </is>
       </c>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
-      <c r="F64" t="n">
+      <c r="E64" t="n">
         <v>5</v>
       </c>
+      <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr"/>
-      <c r="H64" t="inlineStr"/>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f30cff826d1:0xa70bdb72f23f2303!8m2!3d-7.7057126!4d110.3613329!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hb8jvps9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f30cff826d1:0xa70bdb72f23f2303!8m2!3d-7.7057126!4d110.3613329!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11hb8jvps9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3010,21 +2942,20 @@
           <t>(021) 14017</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
-      <c r="F65" t="n">
+      <c r="E65" t="n">
         <v>4</v>
       </c>
+      <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr"/>
-      <c r="H65" t="inlineStr"/>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+Al+Azhar+Jogja/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58fee6ca647f:0x9532a16c7c56cbf1!8m2!3d-7.7515713!4d110.37431!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6df_bdg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+Al+Azhar+Jogja/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58fee6ca647f:0x9532a16c7c56cbf1!8m2!3d-7.7515713!4d110.37431!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6df_bdg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>8 tahun lalu</t>
         </is>
@@ -3043,25 +2974,24 @@
       </c>
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F66" t="n">
-        <v>4.1</v>
+        <v>-7.768057</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.768057</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.386969</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Plaza+Agro+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a590b038c6ee1:0x3778b6ad51220d48!8m2!3d-7.7680574!4d110.3869691!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b8b3m4fm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Plaza+Agro+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a590b038c6ee1:0x3778b6ad51220d48!8m2!3d-7.7680574!4d110.3869691!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b8b3m4fm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3084,25 +3014,24 @@
           <t>(0274) 561614</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.3</v>
+        <v>-7.731867</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.731867</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.33301</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY+Mlati/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a0c314fe85:0xe6e5eed408e591d1!8m2!3d-7.731867!4d110.33301!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6dp_9ny?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J67" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY+Mlati/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58a0c314fe85:0xe6e5eed408e591d1!8m2!3d-7.731867!4d110.33301!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6dp_9ny?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K67" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3129,25 +3058,24 @@
           <t>(021) 1500046</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4</v>
+      </c>
       <c r="F68" t="n">
-        <v>4</v>
+        <v>-7.728507</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.728507</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.363769</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Resto+Pringsewu/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58c486447e5d:0x11139637187f0787!8m2!3d-7.7285066!4d110.3637694!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5wdgdjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J68" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Resto+Pringsewu/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58c486447e5d:0x11139637187f0787!8m2!3d-7.7285066!4d110.3637694!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5wdgdjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3170,25 +3098,24 @@
         </is>
       </c>
       <c r="D69" t="inlineStr"/>
-      <c r="E69" t="inlineStr"/>
+      <c r="E69" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F69" t="n">
-        <v>4.3</v>
+        <v>-7.782046</v>
       </c>
       <c r="G69" t="n">
-        <v>-7.782046</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.401173</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59e8e8680a87:0xf0d00f8e9ef48168!8m2!3d-7.7820458!4d110.4011728!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66j1rvs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J69" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59e8e8680a87:0xf0d00f8e9ef48168!8m2!3d-7.7820458!4d110.4011728!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66j1rvs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3215,25 +3142,24 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.1</v>
+        <v>-7.762925</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.762925</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.411585</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Kcp+UPN+VETERAN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2dd7fa3cce47f10b:0x37a1a67c5e871d10!8m2!3d-7.7629252!4d110.4115851!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pjqb84?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Kcp+UPN+VETERAN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2dd7fa3cce47f10b:0x37a1a67c5e871d10!8m2!3d-7.7629252!4d110.4115851!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pjqb84?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3256,25 +3182,24 @@
           <t>(0274) 622525</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.5</v>
+        <v>-7.777218</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.777218</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.383864</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Danamon/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59cbd2d84cbb:0x4ceb66782bb6e484!8m2!3d-7.7772177!4d110.3838643!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1ptyg4486?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Danamon/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59cbd2d84cbb:0x4ceb66782bb6e484!8m2!3d-7.7772177!4d110.3838643!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1ptyg4486?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -3297,25 +3222,24 @@
         </is>
       </c>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.7</v>
+        <v>-7.775057</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.775057</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.388866</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BNI+Plaza+UNY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c83d778411:0xeaf2227371de9ee4!8m2!3d-7.7750571!4d110.3888661!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c0xkbhxl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3334,25 +3258,24 @@
         </is>
       </c>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.1</v>
+        <v>-7.773441</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.773441</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.385449</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI+UNY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b61240378f:0x569fc2fcd4a2aa98!8m2!3d-7.7734407!4d110.385449!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6bgbzy_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI+UNY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b61240378f:0x569fc2fcd4a2aa98!8m2!3d-7.7734407!4d110.385449!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6bgbzy_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3375,25 +3298,24 @@
         </is>
       </c>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.3</v>
+        <v>-7.782791</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.782791</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.407965</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59e8ade3d4d7:0xfa2ea8416de2ff02!8m2!3d-7.7827911!4d110.4079648!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66bn5wq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J74" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59e8ade3d4d7:0xfa2ea8416de2ff02!8m2!3d-7.7827911!4d110.4079648!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66bn5wq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3412,25 +3334,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>-7.777873</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.777873</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.386914</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c91a4226fd:0x83ee80b06603a6dd!8m2!3d-7.777873!4d110.3869143!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bc7v0zb1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Negara+Indonesia+(Persero)+Tbk/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c91a4226fd:0x83ee80b06603a6dd!8m2!3d-7.777873!4d110.3869143!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bc7v0zb1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -3453,25 +3374,24 @@
         </is>
       </c>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>1.3</v>
+      </c>
       <c r="F76" t="n">
-        <v>1.3</v>
+        <v>-7.767664</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.767664</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.396141</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59bbf4f2d629:0xdfd2db914cabda31!8m2!3d-7.7676644!4d110.3961406!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c4bdt1jh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59bbf4f2d629:0xdfd2db914cabda31!8m2!3d-7.7676644!4d110.3961406!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c4bdt1jh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -3494,25 +3414,24 @@
         </is>
       </c>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F77" t="n">
-        <v>3.7</v>
+        <v>-7.760233</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.760233</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.412294</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a599aefdcc385:0xfa78649e9e8c3f43!8m2!3d-7.7602329!4d110.4122943!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6jjsyq9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a599aefdcc385:0xfa78649e9e8c3f43!8m2!3d-7.7602329!4d110.4122943!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6jjsyq9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3532,22 +3451,21 @@
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
+      <c r="F78" t="n">
+        <v>-7.719557</v>
+      </c>
       <c r="G78" t="n">
-        <v>-7.719557</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.368216</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" t="inlineStr">
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59be96f805cb:0x23019739bac57912!8m2!3d-7.7195568!4d110.3682155!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11tdb7yb1y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -3570,25 +3488,24 @@
           <t>(021) 1500888</t>
         </is>
       </c>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F79" t="n">
-        <v>4.9</v>
+        <v>-7.763808</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.763808</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.379265</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA+Cirkle+K+Kaliurang+Bawah/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ad4f6090f3:0x7a781562c67aab38!8m2!3d-7.7638079!4d110.3792645!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66f8lb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J79" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA+Cirkle+K+Kaliurang+Bawah/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ad4f6090f3:0x7a781562c67aab38!8m2!3d-7.7638079!4d110.3792645!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b66f8lb2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3611,25 +3528,24 @@
           <t>(021) 1500111</t>
         </is>
       </c>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>5</v>
+      </c>
       <c r="F80" t="n">
-        <v>5</v>
+        <v>-7.782935</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.782935</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.388761</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Permata+Adisucipto/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59cfbdc628ed:0x97ec865b1622cf9a!8m2!3d-7.7829353!4d110.3887606!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c318_d2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Permata+Adisucipto/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59cfbdc628ed:0x97ec865b1622cf9a!8m2!3d-7.7829353!4d110.3887606!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11c318_d2k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3656,25 +3572,24 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F81" t="n">
-        <v>4.1</v>
+        <v>-7.782315</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.782315</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.40132</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ef47a89b39:0xab13597cf8354da6!8m2!3d-7.7823147!4d110.4013199!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1tndmy2z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ef47a89b39:0xab13597cf8354da6!8m2!3d-7.7823147!4d110.4013199!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1tndmy2z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3693,25 +3608,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4</v>
+      </c>
       <c r="F82" t="n">
-        <v>4</v>
+        <v>-7.778663</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.778663</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.34028</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Setor+Tarik+Bank+BCA+KCP+Godean/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a580d1b360009:0xc6c9b3c859516386!8m2!3d-7.7786635!4d110.3402804!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f3zvpll4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Setor+Tarik+Bank+BCA+KCP+Godean/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a580d1b360009:0xc6c9b3c859516386!8m2!3d-7.7786635!4d110.3402804!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f3zvpll4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -3738,25 +3652,24 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>3.7</v>
+      </c>
       <c r="F83" t="n">
-        <v>3.7</v>
+        <v>-7.743761</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.743761</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.350351</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5892194e193b:0x198bbb5033c609e4!8m2!3d-7.7437611!4d110.3503511!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1q6bk1lx_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J83" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5892194e193b:0x198bbb5033c609e4!8m2!3d-7.7437611!4d110.3503511!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1q6bk1lx_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -3783,25 +3696,24 @@
           <t>(021) 57987400</t>
         </is>
       </c>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F84" t="n">
-        <v>3.5</v>
+        <v>-7.750545</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.750545</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.362527</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f6c8b1c573:0xbb5c93efe3520ab6!8m2!3d-7.7505448!4d110.362527!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6726_x1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f6c8b1c573:0xbb5c93efe3520ab6!8m2!3d-7.7505448!4d110.362527!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6726_x1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3824,25 +3736,24 @@
         </is>
       </c>
       <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
+      <c r="E85" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F85" t="n">
-        <v>4.7</v>
+        <v>-7.764968</v>
       </c>
       <c r="G85" t="n">
-        <v>-7.764968</v>
-      </c>
-      <c r="H85" t="n">
         <v>110.377045</v>
       </c>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584d5c917b09:0x5286f795fa2461c!8m2!3d-7.7649683!4d110.3770446!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b70f6qsw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584d5c917b09:0x5286f795fa2461c!8m2!3d-7.7649683!4d110.3770446!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b70f6qsw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3861,21 +3772,20 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="n">
+      <c r="E86" t="n">
         <v>5</v>
       </c>
+      <c r="F86" t="inlineStr"/>
       <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bersama+LINK/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59762dcf5681:0x13dda4106c7d304e!8m2!3d-7.7520132!4d110.4110223!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f40zyyn6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bersama+LINK/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59762dcf5681:0x13dda4106c7d304e!8m2!3d-7.7520132!4d110.4110223!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f40zyyn6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -3894,21 +3804,20 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="n">
+      <c r="E87" t="n">
         <v>3</v>
       </c>
+      <c r="F87" t="inlineStr"/>
       <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+RSUD+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f658cb8af33:0x138fcd3a892dc10b!8m2!3d-7.6871903!4d110.3420428!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f4y2864q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+RSUD+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f658cb8af33:0x138fcd3a892dc10b!8m2!3d-7.6871903!4d110.3420428!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f4y2864q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3927,21 +3836,20 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="n">
+      <c r="E88" t="n">
         <v>4</v>
       </c>
+      <c r="F88" t="inlineStr"/>
       <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="b">
-        <v>0</v>
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dion+Barker/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7af627453a1a7f:0x2b33ce6f1ba5a193!8m2!3d-7.7421909!4d110.3301043!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11h9_jzrmt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J88" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dion+Barker/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7af627453a1a7f:0x2b33ce6f1ba5a193!8m2!3d-7.7421909!4d110.3301043!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11h9_jzrmt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3960,21 +3868,20 @@
       </c>
       <c r="C89" t="inlineStr"/>
       <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="n">
+      <c r="E89" t="n">
         <v>3.5</v>
       </c>
+      <c r="F89" t="inlineStr"/>
       <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Adisucipto/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59cf91ff3df7:0x9fcba4b1fc669de2!8m2!3d-7.7829057!4d110.3896023!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b64bxy0n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Adisucipto/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59cf91ff3df7:0x9fcba4b1fc669de2!8m2!3d-7.7829057!4d110.3896023!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b64bxy0n?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3994,22 +3901,21 @@
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr"/>
-      <c r="F90" t="inlineStr"/>
+      <c r="F90" t="n">
+        <v>-7.743304</v>
+      </c>
       <c r="G90" t="n">
-        <v>-7.743304</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.356022</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" t="inlineStr">
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BCA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ec7777f6b1:0x47f56a1e2ee30300!8m2!3d-7.7433043!4d110.3560218!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11sc23vk5d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -4032,21 +3938,20 @@
           <t>14000</t>
         </is>
       </c>
-      <c r="E91" t="inlineStr"/>
-      <c r="F91" t="n">
+      <c r="E91" t="n">
         <v>4</v>
       </c>
+      <c r="F91" t="inlineStr"/>
       <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
-      <c r="I91" t="b">
-        <v>0</v>
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri+Polda+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59a18b0a500d:0x1a14e347e227acbd!8m2!3d-7.7580943!4d110.4008841!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g6nvvtyr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J91" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri+Polda+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59a18b0a500d:0x1a14e347e227acbd!8m2!3d-7.7580943!4d110.4008841!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g6nvvtyr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K91" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4073,21 +3978,20 @@
           <t>(021) 1500046</t>
         </is>
       </c>
-      <c r="E92" t="inlineStr"/>
-      <c r="F92" t="n">
+      <c r="E92" t="n">
         <v>3.6</v>
       </c>
+      <c r="F92" t="inlineStr"/>
       <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+SPBU+Sendangadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58e93388f85d:0xd3a9d721073f54d0!8m2!3d-7.7391155!4d110.3625084!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b72qw6tm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+SPBU+Sendangadi/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58e93388f85d:0xd3a9d721073f54d0!8m2!3d-7.7391155!4d110.3625084!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b72qw6tm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -4114,21 +4018,20 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E93" t="inlineStr"/>
-      <c r="F93" t="n">
+      <c r="E93" t="n">
         <v>5</v>
       </c>
+      <c r="F93" t="inlineStr"/>
       <c r="G93" t="inlineStr"/>
-      <c r="H93" t="inlineStr"/>
-      <c r="I93" t="b">
-        <v>0</v>
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58085555556f:0xf0c0c68d4e1e3594!8m2!3d-7.7790537!4d110.3393063!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pj420v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J93" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58085555556f:0xf0c0c68d4e1e3594!8m2!3d-7.7790537!4d110.3393063!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pj420v?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K93" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -4151,21 +4054,20 @@
           <t>(021) 1500017</t>
         </is>
       </c>
-      <c r="E94" t="inlineStr"/>
-      <c r="F94" t="n">
+      <c r="E94" t="n">
         <v>4</v>
       </c>
+      <c r="F94" t="inlineStr"/>
       <c r="G94" t="inlineStr"/>
-      <c r="H94" t="inlineStr"/>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c83d1a81f7:0xdb6631e5028c3241!8m2!3d-7.7750763!4d110.3887833!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f4qds3cc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c83d1a81f7:0xdb6631e5028c3241!8m2!3d-7.7750763!4d110.3887833!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f4qds3cc?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4192,21 +4094,20 @@
           <t>(021) 1500046</t>
         </is>
       </c>
-      <c r="E95" t="inlineStr"/>
-      <c r="F95" t="n">
+      <c r="E95" t="n">
         <v>4.3</v>
       </c>
+      <c r="F95" t="inlineStr"/>
       <c r="G95" t="inlineStr"/>
-      <c r="H95" t="inlineStr"/>
-      <c r="I95" t="b">
-        <v>0</v>
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+KLN+Magelang/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585c00000073:0xab51aa74f81fea99!8m2!3d-7.7008579!4d110.3483127!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pht169?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J95" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+KLN+Magelang/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a585c00000073:0xab51aa74f81fea99!8m2!3d-7.7008579!4d110.3483127!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pht169?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -4233,21 +4134,20 @@
           <t>(021) 52997777</t>
         </is>
       </c>
-      <c r="E96" t="inlineStr"/>
-      <c r="F96" t="n">
+      <c r="E96" t="n">
         <v>4</v>
       </c>
+      <c r="F96" t="inlineStr"/>
       <c r="G96" t="inlineStr"/>
-      <c r="H96" t="inlineStr"/>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5996fa31a0e9:0x983b803528ab167f!8m2!3d-7.7662768!4d110.4057888!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b633nlcq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5996fa31a0e9:0x983b803528ab167f!8m2!3d-7.7662768!4d110.4057888!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b633nlcq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -4267,22 +4167,21 @@
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr"/>
-      <c r="F97" t="inlineStr"/>
+      <c r="F97" t="n">
+        <v>-7.696949</v>
+      </c>
       <c r="G97" t="n">
-        <v>-7.696949</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.346369</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
-      </c>
-      <c r="J97" t="inlineStr">
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BNI+POLRES+SLEMAN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f3b71959dd3:0x95ccaec4558706d1!8m2!3d-7.696949!4d110.3463692!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11txt_yw7j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -4306,22 +4205,21 @@
         </is>
       </c>
       <c r="E98" t="inlineStr"/>
-      <c r="F98" t="inlineStr"/>
+      <c r="F98" t="n">
+        <v>-7.763765</v>
+      </c>
       <c r="G98" t="n">
-        <v>-7.763765</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.379271</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Bank+Sinarmas/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5983d9178d21:0x8ccc235f0563df2c!8m2!3d-7.7637647!4d110.3792712!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11w4w92v02?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4336,21 +4234,20 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
-      <c r="F99" t="n">
+      <c r="E99" t="n">
         <v>3.5</v>
       </c>
+      <c r="F99" t="inlineStr"/>
       <c r="G99" t="inlineStr"/>
-      <c r="H99" t="inlineStr"/>
-      <c r="I99" t="b">
-        <v>0</v>
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Jogja+City+Mall/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f5dbd3a573:0x77c842636d566015!8m2!3d-7.7538912!4d110.3604327!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g81c2mq6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J99" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Jogja+City+Mall/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a58f5dbd3a573:0x77c842636d566015!8m2!3d-7.7538912!4d110.3604327!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11g81c2mq6?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4378,22 +4275,21 @@
         </is>
       </c>
       <c r="E100" t="inlineStr"/>
-      <c r="F100" t="inlineStr"/>
+      <c r="F100" t="n">
+        <v>-7.755901</v>
+      </c>
       <c r="G100" t="n">
-        <v>-7.755901</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.39617</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
-      </c>
-      <c r="J100" t="inlineStr">
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Bank+BRI+ATM+-+UNIT+BRI+DEPOK+SLEMAN/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b2e3aa9b33:0x97a5a56d6c9bfb7c!8m2!3d-7.7559013!4d110.3961695!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11pzyk77s5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -4416,21 +4312,20 @@
           <t>(021) 1500046</t>
         </is>
       </c>
-      <c r="E101" t="inlineStr"/>
-      <c r="F101" t="n">
+      <c r="E101" t="n">
         <v>4.5</v>
       </c>
+      <c r="F101" t="inlineStr"/>
       <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+RS+Gigi+dan+Mulut+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584b933afb79:0x376c3a7b4ea63641!8m2!3d-7.770767!4d110.374132!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F11b5wf3yng?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+RS+Gigi+dan+Mulut+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584b933afb79:0x376c3a7b4ea63641!8m2!3d-7.770767!4d110.374132!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F11b5wf3yng?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4457,21 +4352,20 @@
           <t>(021) 1500046</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
-      <c r="F102" t="n">
+      <c r="E102" t="n">
         <v>4.5</v>
       </c>
+      <c r="F102" t="inlineStr"/>
       <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+RS+Gigi+dan+Mulut+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584b933afb79:0x376c3a7b4ea63641!8m2!3d-7.770767!4d110.374132!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F11b5wf3yng?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+RS+Gigi+dan+Mulut+UGM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a584b933afb79:0x376c3a7b4ea63641!8m2!3d-7.770767!4d110.374132!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F11b5wf3yng?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4498,21 +4392,20 @@
           <t>1 500 111</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="n">
+      <c r="E103" t="n">
         <v>3.7</v>
       </c>
+      <c r="F103" t="inlineStr"/>
       <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
-      <c r="I103" t="b">
-        <v>0</v>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Permata+Bank+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5900b2bd702d:0xcb3150994138bb8f!8m2!3d-7.7532855!4d110.3844123!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyg8syk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Permata+Bank+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5900b2bd702d:0xcb3150994138bb8f!8m2!3d-7.7532855!4d110.3844123!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyg8syk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -4531,21 +4424,20 @@
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="n">
+      <c r="E104" t="n">
         <v>3.7</v>
       </c>
+      <c r="F104" t="inlineStr"/>
       <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
-      <c r="I104" t="b">
-        <v>0</v>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BANK+BRI+Unit+Demangan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b764488ac3:0xccf7bca7abf3966c!8m2!3d-7.7708262!4d110.3899423!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b75nh0kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J104" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BANK+BRI+Unit+Demangan/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59b764488ac3:0xccf7bca7abf3966c!8m2!3d-7.7708262!4d110.3899423!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b75nh0kg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4572,21 +4464,20 @@
           <t>(0274) 486163</t>
         </is>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="n">
+      <c r="E105" t="n">
         <v>4.1</v>
       </c>
+      <c r="F105" t="inlineStr"/>
       <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="b">
-        <v>0</v>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5993bd1545bd:0xd12ef011ed74a03e!8m2!3d-7.7699873!4d110.4100241!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b63627zp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mandiri+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5993bd1545bd:0xd12ef011ed74a03e!8m2!3d-7.7699873!4d110.4100241!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b63627zp?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -4609,21 +4500,20 @@
         </is>
       </c>
       <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="n">
+      <c r="E106" t="n">
         <v>3.8</v>
       </c>
+      <c r="F106" t="inlineStr"/>
       <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="b">
-        <v>0</v>
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a593edbd5a601:0x2ff817a581eeb0ff!8m2!3d-7.7283968!4d110.3989651!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b62tv4qm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J106" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Mandiri/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a593edbd5a601:0x2ff817a581eeb0ff!8m2!3d-7.7283968!4d110.3989651!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b62tv4qm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K106" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4651,22 +4541,21 @@
         </is>
       </c>
       <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
+      <c r="F107" t="n">
+        <v>-7.753666</v>
+      </c>
       <c r="G107" t="n">
-        <v>-7.753666</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.360717</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
-      </c>
-      <c r="J107" t="inlineStr">
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+-+JOGJA+CITY+MALL/@-7.7198936,110.2169777,12z/data=!3m1!5s0x2e7a58f6fef5b2a1:0xcaebf8d1f5c9430b!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59f2942bb833:0x4c263a7f20689cfd!8m2!3d-7.753666!4d110.3607167!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11sqkkss20?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -4681,21 +4570,20 @@
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="n">
+      <c r="E108" t="n">
         <v>3.5</v>
       </c>
+      <c r="F108" t="inlineStr"/>
       <c r="G108" t="inlineStr"/>
-      <c r="H108" t="inlineStr"/>
-      <c r="I108" t="b">
-        <v>0</v>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59db1392c9a5:0xa583c6307ee37d6b!8m2!3d-7.7860128!4d110.394623!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6b61nn0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J108" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BPD+DIY/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59db1392c9a5:0xa583c6307ee37d6b!8m2!3d-7.7860128!4d110.394623!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b6b61nn0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -4722,21 +4610,20 @@
           <t>(021) 1500046</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="n">
+      <c r="E109" t="n">
         <v>5</v>
       </c>
+      <c r="F109" t="inlineStr"/>
       <c r="G109" t="inlineStr"/>
-      <c r="H109" t="inlineStr"/>
-      <c r="I109" t="b">
-        <v>0</v>
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI+Graha+Strategic/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59eaee590b7d:0xe29fc0bdcc28085e!8m2!3d-7.7730608!4d110.4047309!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyf6cdd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J109" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI+Graha+Strategic/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59eaee590b7d:0xe29fc0bdcc28085e!8m2!3d-7.7730608!4d110.4047309!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyf6cdd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -4760,22 +4647,21 @@
         </is>
       </c>
       <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
+      <c r="F110" t="n">
+        <v>-7.773526</v>
+      </c>
       <c r="G110" t="n">
-        <v>-7.773526</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.409385</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
-      </c>
-      <c r="J110" t="inlineStr">
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+Permata/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5996aaaaaaab:0x122c089e24273ea8!8m2!3d-7.7735258!4d110.4093853!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F1jmclbwxr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -4794,21 +4680,20 @@
           <t>(021) 57987400</t>
         </is>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="n">
+      <c r="E111" t="n">
         <v>4</v>
       </c>
+      <c r="F111" t="inlineStr"/>
       <c r="G111" t="inlineStr"/>
-      <c r="H111" t="inlineStr"/>
-      <c r="I111" t="b">
-        <v>0</v>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Bank+BRI+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c7bcb6f403:0x315242eb6e506ab9!8m2!3d-7.7756738!4d110.3926636!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b64jh5g5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J111" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Bank+BRI+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c7bcb6f403:0x315242eb6e506ab9!8m2!3d-7.7756738!4d110.3926636!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b64jh5g5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
         <is>
           <t>6 tahun lalu</t>
         </is>
@@ -4827,21 +4712,20 @@
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="n">
+      <c r="E112" t="n">
         <v>3.7</v>
       </c>
+      <c r="F112" t="inlineStr"/>
       <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="b">
-        <v>0</v>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+CENTER/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c296315bc9:0x9e884bf4d128415b!8m2!3d-7.782643!4d110.40142!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b74t7s7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+CENTER/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59c296315bc9:0x9e884bf4d128415b!8m2!3d-7.782643!4d110.40142!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b74t7s7d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4864,21 +4748,20 @@
           <t>(021) 0500888</t>
         </is>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="n">
+      <c r="E113" t="n">
         <v>2.5</v>
       </c>
+      <c r="F113" t="inlineStr"/>
       <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="b">
-        <v>0</v>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BCA+023Q-Toko+Arloji+Samudra+Makmur/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ad1ef62d5f:0x8780bf6cf8d74b24!8m2!3d-7.7617725!4d110.3803699!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F1q6jb2nn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J113" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BCA+023Q-Toko+Arloji+Samudra+Makmur/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ad1ef62d5f:0x8780bf6cf8d74b24!8m2!3d-7.7617725!4d110.3803699!15sCgpBVE0gU2xlbWFukgEEYmFua-ABAA!16s%2Fg%2F1q6jb2nn9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4905,21 +4788,20 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="n">
+      <c r="E114" t="n">
         <v>4.4</v>
       </c>
+      <c r="F114" t="inlineStr"/>
       <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="b">
-        <v>0</v>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ef7d1d3f79:0xd7a16ae4dad0a4bf!8m2!3d-7.7827178!4d110.4014105!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pjzc53?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J114" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ef7d1d3f79:0xd7a16ae4dad0a4bf!8m2!3d-7.7827178!4d110.4014105!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pjzc53?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -4942,21 +4824,20 @@
           <t>(021) 1500017</t>
         </is>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="n">
+      <c r="E115" t="n">
         <v>3.3</v>
       </c>
+      <c r="F115" t="inlineStr"/>
       <c r="G115" t="inlineStr"/>
-      <c r="H115" t="inlineStr"/>
-      <c r="I115" t="b">
-        <v>0</v>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59bfec233ec1:0x862e54ebff7f0be4!8m2!3d-7.7728488!4d110.4012843!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyhpz5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J115" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59bfec233ec1:0x862e54ebff7f0be4!8m2!3d-7.7728488!4d110.4012843!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyhpz5c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4976,22 +4857,21 @@
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
+      <c r="F116" t="n">
+        <v>-7.687246</v>
+      </c>
       <c r="G116" t="n">
-        <v>-7.687246</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.34196</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr">
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/ATM+BNI+RSUD+Sleman/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f5c34547881:0x299c885f464cd2a8!8m2!3d-7.6872458!4d110.3419603!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11tg5y3_h4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -5010,25 +4890,24 @@
         </is>
       </c>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F117" t="n">
-        <v>4.5</v>
+        <v>-7.778908</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.778908</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.340203</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a580d811c7345:0x7594b4431c7c256b!8m2!3d-7.7789075!4d110.3402027!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b67hkqrn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J117" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BCA/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a580d811c7345:0x7594b4431c7c256b!8m2!3d-7.7789075!4d110.3402027!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b67hkqrn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -5051,21 +4930,20 @@
         </is>
       </c>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="n">
+      <c r="E118" t="n">
         <v>4.3</v>
       </c>
+      <c r="F118" t="inlineStr"/>
       <c r="G118" t="inlineStr"/>
-      <c r="H118" t="inlineStr"/>
-      <c r="I118" t="b">
-        <v>0</v>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f30c5587385:0x59f40df849a5afce!8m2!3d-7.7057148!4d110.3613361!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f3g5n3xj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J118" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Bank+BRI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a5f30c5587385:0x59f40df849a5afce!8m2!3d-7.7057148!4d110.3613361!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11f3g5n3xj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -5092,21 +4970,20 @@
           <t>(021) 57899999</t>
         </is>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="n">
+      <c r="E119" t="n">
         <v>5</v>
       </c>
+      <c r="F119" t="inlineStr"/>
       <c r="G119" t="inlineStr"/>
-      <c r="H119" t="inlineStr"/>
-      <c r="I119" t="b">
-        <v>0</v>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+Gallery+Ambarukmo+Plaza/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ef7d1d3f79:0x50c63d545b7901e5!8m2!3d-7.7821428!4d110.4013488!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pjb8c0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J119" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+Gallery+Ambarukmo+Plaza/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59ef7d1d3f79:0x50c63d545b7901e5!8m2!3d-7.7821428!4d110.4013488!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b5pjb8c0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -5125,25 +5002,24 @@
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>5</v>
+      </c>
       <c r="F120" t="n">
-        <v>5</v>
+        <v>-7.753139</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.753139</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.384629</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/CIMB+Niaga+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59074b67809b:0x718e75c30e3095c0!8m2!3d-7.7531392!4d110.3846288!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyg8z_0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J120" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/CIMB+Niaga+ATM/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a59074b67809b:0x718e75c30e3095c0!8m2!3d-7.7531392!4d110.3846288!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11bbyg8z_0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -5170,21 +5046,20 @@
           <t>(021) 1500046</t>
         </is>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="n">
+      <c r="E121" t="n">
         <v>4.4</v>
       </c>
+      <c r="F121" t="inlineStr"/>
       <c r="G121" t="inlineStr"/>
-      <c r="H121" t="inlineStr"/>
-      <c r="I121" t="b">
-        <v>0</v>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a580cedeffc41:0xdc066af77eb9d75f!8m2!3d-7.7783884!4d110.3371984!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b75dyn3q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/ATM+BNI/@-7.7198936,110.2169777,12z/data=!4m11!1m3!2m2!1sATM+Sleman!6e2!3m6!1s0x2e7a580cedeffc41:0xdc066af77eb9d75f!8m2!3d-7.7783884!4d110.3371984!15sCgpBVE0gU2xlbWFukgEDYXRt4AEA!16s%2Fg%2F11b75dyn3q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
